--- a/data/excel/actus-tests-option.xlsx
+++ b/data/excel/actus-tests-option.xlsx
@@ -31,9 +31,9 @@
   <definedNames>
     <definedName localSheetId="3" name="Excel_BuiltIn__FilterDatabase">#REF!</definedName>
     <definedName localSheetId="4" name="Excel_BuiltIn__FilterDatabase">#REF!</definedName>
+    <definedName localSheetId="17" name="Excel_BuiltIn__FilterDatabase">#REF!</definedName>
     <definedName localSheetId="2" name="Excel_BuiltIn__FilterDatabase">#REF!</definedName>
     <definedName localSheetId="5" name="Excel_BuiltIn__FilterDatabase">#REF!</definedName>
-    <definedName localSheetId="17" name="Excel_BuiltIn__FilterDatabase">#REF!</definedName>
     <definedName localSheetId="16" name="Excel_BuiltIn__FilterDatabase">#REF!</definedName>
   </definedNames>
   <calcPr/>
@@ -148,7 +148,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>0D</t>
+    <t>P0D</t>
   </si>
   <si>
     <t>S</t>
@@ -181,7 +181,7 @@
     <t>option05</t>
   </si>
   <si>
-    <t>3D</t>
+    <t>P3D</t>
   </si>
   <si>
     <t>option06</t>
@@ -220,7 +220,7 @@
     <t>option13</t>
   </si>
   <si>
-    <t>5D</t>
+    <t>P5D</t>
   </si>
   <si>
     <t>option14</t>
@@ -293,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -323,6 +323,14 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -355,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -398,7 +406,19 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2239,7 +2259,7 @@
         <v>160.0</v>
       </c>
       <c r="Q19" s="3"/>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="S19" s="3" t="s">
@@ -2600,7 +2620,7 @@
       <c r="B24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -2626,7 +2646,7 @@
       <c r="L24" s="3">
         <v>20.0</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="15" t="s">
         <v>42</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2647,36 +2667,36 @@
       </c>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="W24" s="7" t="s">
+      <c r="W24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2720,7 +2740,7 @@
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2764,7 +2784,7 @@
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2808,7 +2828,7 @@
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2852,7 +2872,7 @@
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2896,7 +2916,7 @@
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -2940,7 +2960,7 @@
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -2984,7 +3004,7 @@
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3028,7 +3048,7 @@
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3072,7 +3092,7 @@
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3116,7 +3136,7 @@
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3160,7 +3180,7 @@
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3204,7 +3224,7 @@
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3248,7 +3268,7 @@
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3292,7 +3312,7 @@
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3336,7 +3356,7 @@
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -3380,7 +3400,7 @@
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -44668,7 +44688,7 @@
       <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="16">
         <v>20.0</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -44735,7 +44755,7 @@
       <c r="B5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="16">
         <v>-39.67</v>
       </c>
       <c r="D5" s="7" t="s">
